--- a/src/test/data/anno_LabelledCell_template.xlsx
+++ b/src/test/data/anno_LabelledCell_template.xlsx
@@ -4,19 +4,20 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="LabelledCell(通常)" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
+    <sheet name="LabelledCell(メソッドにアノテーションを付与)" sheetId="4" r:id="rId2"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId3"/>
+    <sheet name="Sheet3" sheetId="3" r:id="rId4"/>
   </sheets>
   <calcPr calcId="122211"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="11">
   <si>
     <t>LabelledCellProcessor(@XlsLabelledCell)のテスト</t>
     <phoneticPr fontId="1"/>
@@ -523,7 +524,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G30"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+    <sheetView topLeftCell="A19" workbookViewId="0">
       <selection activeCell="B27" activeCellId="6" sqref="C12 B9 G17 B18 B22 C26 B27"/>
     </sheetView>
   </sheetViews>
@@ -620,12 +621,98 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A1:G30"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F16" sqref="F16"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
-  <sheetData/>
+  <sheetFormatPr defaultRowHeight="12" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="6.625" style="2" customWidth="1"/>
+    <col min="2" max="2" width="14.375" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.625" style="2" customWidth="1"/>
+    <col min="4" max="16384" width="9" style="2"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="B4" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="C4" s="4"/>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="C6" s="4"/>
+      <c r="D6" s="5" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="B8" s="5" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="B9" s="4"/>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="B12" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="C12" s="3"/>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="B16" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="D16" s="7" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="17" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="B17" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D17" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="G17" s="6"/>
+    </row>
+    <row r="18" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="B18" s="6"/>
+    </row>
+    <row r="21" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="D21" s="7" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="22" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="B22" s="6"/>
+      <c r="D22" s="5" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="26" spans="2:7" ht="24" x14ac:dyDescent="0.15">
+      <c r="B26" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="C26" s="4"/>
+    </row>
+    <row r="27" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="B27" s="4"/>
+    </row>
+    <row r="30" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="B30" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="C30" s="4"/>
+    </row>
+  </sheetData>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -642,4 +729,17 @@
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetData/>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/src/test/data/anno_LabelledCell_template.xlsx
+++ b/src/test/data/anno_LabelledCell_template.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
   </bookViews>
   <sheets>
     <sheet name="LabelledCell(通常)" sheetId="1" r:id="rId1"/>
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="12">
   <si>
     <t>LabelledCellProcessor(@XlsLabelledCell)のテスト</t>
     <phoneticPr fontId="1"/>
@@ -108,6 +108,16 @@
     </rPh>
     <rPh sb="4" eb="6">
       <t>バアイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>結合しているセル（ラベル名）</t>
+    <rPh sb="0" eb="2">
+      <t>ケツゴウ</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>メイ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -208,7 +218,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -221,6 +231,7 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
@@ -522,10 +533,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G30"/>
+  <dimension ref="A1:G33"/>
   <sheetViews>
-    <sheetView topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="B27" activeCellId="6" sqref="C12 B9 G17 B18 B22 C26 B27"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G28" sqref="G28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12" x14ac:dyDescent="0.15"/>
@@ -533,7 +544,9 @@
     <col min="1" max="1" width="6.625" style="2" customWidth="1"/>
     <col min="2" max="2" width="14.375" style="2" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="13.625" style="2" customWidth="1"/>
-    <col min="4" max="16384" width="9" style="2"/>
+    <col min="4" max="4" width="9" style="2"/>
+    <col min="5" max="5" width="11.5" style="2" customWidth="1"/>
+    <col min="6" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.15">
@@ -613,7 +626,18 @@
       </c>
       <c r="C30" s="4"/>
     </row>
+    <row r="33" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="B33" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="C33" s="10"/>
+      <c r="D33" s="10"/>
+      <c r="E33" s="4"/>
+    </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="B33:D33"/>
+  </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -623,7 +647,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G30"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F16" sqref="F16"/>
     </sheetView>
   </sheetViews>

--- a/src/test/data/anno_LabelledCell_template.xlsx
+++ b/src/test/data/anno_LabelledCell_template.xlsx
@@ -4,20 +4,21 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="LabelledCell(通常)" sheetId="1" r:id="rId1"/>
     <sheet name="LabelledCell(メソッドにアノテーションを付与)" sheetId="4" r:id="rId2"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId3"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId4"/>
+    <sheet name="正規表現で一致" sheetId="5" r:id="rId3"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId4"/>
+    <sheet name="Sheet3" sheetId="3" r:id="rId5"/>
   </sheets>
   <calcPr calcId="122211"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="18">
   <si>
     <t>LabelledCellProcessor(@XlsLabelledCell)のテスト</t>
     <phoneticPr fontId="1"/>
@@ -119,6 +120,44 @@
     <rPh sb="12" eb="13">
       <t>メイ</t>
     </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>LabelledCellProcessor(@XlsLabelledCell)のテスト</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>見出し(1)</t>
+    <rPh sb="0" eb="2">
+      <t>ミダ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>見出し(a)</t>
+    <rPh sb="0" eb="2">
+      <t>ミダ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> 更新
+日時 </t>
+    <rPh sb="1" eb="3">
+      <t>コウシン</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>ニチジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ヘッダー
+（テスト）</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ラベル</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -159,7 +198,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -187,6 +226,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -218,7 +263,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -231,7 +276,18 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
@@ -535,7 +591,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G33"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G28" sqref="G28"/>
     </sheetView>
   </sheetViews>
@@ -627,11 +683,11 @@
       <c r="C30" s="4"/>
     </row>
     <row r="33" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="B33" s="10" t="s">
+      <c r="B33" s="14" t="s">
         <v>11</v>
       </c>
-      <c r="C33" s="10"/>
-      <c r="D33" s="10"/>
+      <c r="C33" s="14"/>
+      <c r="D33" s="14"/>
       <c r="E33" s="4"/>
     </row>
   </sheetData>
@@ -744,12 +800,56 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A1:E14"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="C14" sqref="C14"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
-  <sheetData/>
+  <cols>
+    <col min="2" max="2" width="10" customWidth="1"/>
+    <col min="3" max="3" width="19.5" customWidth="1"/>
+    <col min="5" max="5" width="23.5" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A1" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="B5" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="C5" s="11"/>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="B7" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="C7" s="11"/>
+    </row>
+    <row r="9" spans="1:5" ht="27" x14ac:dyDescent="0.15">
+      <c r="E9" s="12" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="E10" s="13"/>
+    </row>
+    <row r="13" spans="1:5" ht="27" x14ac:dyDescent="0.15">
+      <c r="B13" s="15" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="B14" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="C14" s="11"/>
+    </row>
+  </sheetData>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -766,4 +866,17 @@
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetData/>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/src/test/data/anno_LabelledCell_template.xlsx
+++ b/src/test/data/anno_LabelledCell_template.xlsx
@@ -4,21 +4,22 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="2"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" firstSheet="1" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="LabelledCell(通常)" sheetId="1" r:id="rId1"/>
     <sheet name="LabelledCell(メソッドにアノテーションを付与)" sheetId="4" r:id="rId2"/>
     <sheet name="正規表現で一致" sheetId="5" r:id="rId3"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId4"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId5"/>
+    <sheet name="数式を指定" sheetId="6" r:id="rId4"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId5"/>
+    <sheet name="Sheet3" sheetId="3" r:id="rId6"/>
   </sheets>
-  <calcPr calcId="122211"/>
+  <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="22">
   <si>
     <t>LabelledCellProcessor(@XlsLabelledCell)のテスト</t>
     <phoneticPr fontId="1"/>
@@ -158,6 +159,31 @@
   </si>
   <si>
     <t>ラベル</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>LabelledCellProcessor(@XlsLabelledCell)のテスト</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>開始日</t>
+    <rPh sb="0" eb="3">
+      <t>カイシビ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>終了日</t>
+    <rPh sb="0" eb="3">
+      <t>シュウリョウビ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>差</t>
+    <rPh sb="0" eb="1">
+      <t>サ</t>
+    </rPh>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -263,7 +289,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -284,10 +310,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
@@ -683,11 +710,11 @@
       <c r="C30" s="4"/>
     </row>
     <row r="33" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="B33" s="14" t="s">
+      <c r="B33" s="16" t="s">
         <v>11</v>
       </c>
-      <c r="C33" s="14"/>
-      <c r="D33" s="14"/>
+      <c r="C33" s="16"/>
+      <c r="D33" s="16"/>
       <c r="E33" s="4"/>
     </row>
   </sheetData>
@@ -802,7 +829,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E14"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+    <sheetView topLeftCell="A4" workbookViewId="0">
       <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
@@ -839,7 +866,7 @@
       <c r="E10" s="13"/>
     </row>
     <row r="13" spans="1:5" ht="27" x14ac:dyDescent="0.15">
-      <c r="B13" s="15" t="s">
+      <c r="B13" s="14" t="s">
         <v>16</v>
       </c>
     </row>
@@ -857,12 +884,39 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A1:D5"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I14" sqref="I14"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
-  <sheetData/>
+  <cols>
+    <col min="2" max="3" width="10.5" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A1" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="B4" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="C4" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="D4" s="10" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="B5" s="15"/>
+      <c r="C5" s="15"/>
+      <c r="D5" s="11"/>
+    </row>
+  </sheetData>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -879,4 +933,17 @@
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetData/>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/src/test/data/anno_LabelledCell_template.xlsx
+++ b/src/test/data/anno_LabelledCell_template.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" firstSheet="1" activeTab="3"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
   </bookViews>
   <sheets>
     <sheet name="LabelledCell(通常)" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="23">
   <si>
     <t>LabelledCellProcessor(@XlsLabelledCell)のテスト</t>
     <phoneticPr fontId="1"/>
@@ -183,6 +183,16 @@
     <t>差</t>
     <rPh sb="0" eb="1">
       <t>サ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>結合を考慮</t>
+    <rPh sb="0" eb="2">
+      <t>ケツゴウ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>コウリョ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -224,7 +234,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="7">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -261,6 +271,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="2">
     <border>
@@ -289,7 +305,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -315,6 +331,12 @@
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
@@ -616,10 +638,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G33"/>
+  <dimension ref="A1:G40"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G28" sqref="G28"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="I34" sqref="I34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12" x14ac:dyDescent="0.15"/>
@@ -717,9 +739,37 @@
       <c r="D33" s="16"/>
       <c r="E33" s="4"/>
     </row>
+    <row r="37" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="B37" s="17"/>
+      <c r="C37" s="18" t="s">
+        <v>22</v>
+      </c>
+      <c r="D37" s="18"/>
+      <c r="E37" s="17"/>
+    </row>
+    <row r="38" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="B38" s="17"/>
+      <c r="C38" s="18"/>
+      <c r="D38" s="18"/>
+      <c r="E38" s="17"/>
+    </row>
+    <row r="39" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="B39" s="17"/>
+      <c r="C39" s="18"/>
+      <c r="D39" s="18"/>
+      <c r="E39" s="17"/>
+    </row>
+    <row r="40" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="C40" s="17"/>
+      <c r="D40" s="17"/>
+    </row>
   </sheetData>
-  <mergeCells count="1">
+  <mergeCells count="5">
     <mergeCell ref="B33:D33"/>
+    <mergeCell ref="B37:B39"/>
+    <mergeCell ref="C37:D39"/>
+    <mergeCell ref="E37:E39"/>
+    <mergeCell ref="C40:D40"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -886,7 +936,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="I14" sqref="I14"/>
     </sheetView>
   </sheetViews>

--- a/src/test/data/anno_LabelledCell_template.xlsx
+++ b/src/test/data/anno_LabelledCell_template.xlsx
@@ -1,29 +1,24 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="18625"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="2"/>
   </bookViews>
   <sheets>
-    <sheet name="LabelledCell(通常)" sheetId="1" r:id="rId1"/>
-    <sheet name="LabelledCell(メソッドにアノテーションを付与)" sheetId="4" r:id="rId2"/>
-    <sheet name="正規表現で一致" sheetId="5" r:id="rId3"/>
-    <sheet name="数式を指定" sheetId="6" r:id="rId4"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId5"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId6"/>
+    <sheet name="通常" sheetId="1" r:id="rId1"/>
+    <sheet name="メソッドにアノテーションを付与" sheetId="4" r:id="rId2"/>
+    <sheet name="見出しから離れたセル" sheetId="7" r:id="rId3"/>
+    <sheet name="正規表現で一致" sheetId="5" r:id="rId4"/>
+    <sheet name="数式を指定" sheetId="6" r:id="rId5"/>
   </sheets>
   <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="23">
-  <si>
-    <t>LabelledCellProcessor(@XlsLabelledCell)のテスト</t>
-    <phoneticPr fontId="1"/>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="22">
   <si>
     <t>位置（右側）</t>
     <rPh sb="0" eb="2">
@@ -124,10 +119,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>LabelledCellProcessor(@XlsLabelledCell)のテスト</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>見出し(1)</t>
     <rPh sb="0" eb="2">
       <t>ミダ</t>
@@ -162,10 +153,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>LabelledCellProcessor(@XlsLabelledCell)のテスト</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>開始日</t>
     <rPh sb="0" eb="3">
       <t>カイシビ</t>
@@ -194,13 +181,24 @@
     <rPh sb="3" eb="5">
       <t>コウリョ</t>
     </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ラベルから離れたテスト</t>
+    <rPh sb="5" eb="6">
+      <t>ハナ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>アノテーション「@XlsLabelledCell」のテスト</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -307,7 +305,6 @@
   </cellStyleXfs>
   <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="49" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
@@ -337,6 +334,7 @@
     <xf numFmtId="0" fontId="3" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
@@ -347,12 +345,15 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
   </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office ​​テーマ">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office テーマ">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -394,7 +395,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -427,9 +428,26 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -462,6 +480,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -640,128 +675,126 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G40"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="I34" sqref="I34"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="6.625" style="2" customWidth="1"/>
-    <col min="2" max="2" width="14.375" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.625" style="2" customWidth="1"/>
-    <col min="4" max="4" width="9" style="2"/>
-    <col min="5" max="5" width="11.5" style="2" customWidth="1"/>
-    <col min="6" max="16384" width="9" style="2"/>
+    <col min="1" max="1" width="6.625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="14.375" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="9" style="1"/>
+    <col min="5" max="5" width="11.5" style="1" customWidth="1"/>
+    <col min="6" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="18" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="B4" s="4" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="B4" s="5" t="s">
+      <c r="C4" s="3"/>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="C6" s="3"/>
+      <c r="D6" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C4" s="4"/>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="C6" s="4"/>
-      <c r="D6" s="5" t="s">
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="B8" s="4" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="B8" s="5" t="s">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="B9" s="3"/>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="B12" s="4" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="B9" s="4"/>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="B12" s="5" t="s">
+      <c r="C12" s="2"/>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="B16" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="C12" s="3"/>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="B16" s="7" t="s">
+      <c r="D16" s="6" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="17" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="B17" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="D16" s="7" t="s">
+      <c r="D17" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="G17" s="5"/>
+    </row>
+    <row r="18" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="B18" s="5"/>
+    </row>
+    <row r="21" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="D21" s="6" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="17" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="B17" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="D17" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="G17" s="6"/>
-    </row>
-    <row r="18" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="B18" s="6"/>
-    </row>
-    <row r="21" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="D21" s="7" t="s">
+    <row r="22" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="B22" s="5"/>
+      <c r="D22" s="4" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="26" spans="2:7" ht="24" x14ac:dyDescent="0.15">
+      <c r="B26" s="7" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="22" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="B22" s="6"/>
-      <c r="D22" s="5" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="26" spans="2:7" ht="24" x14ac:dyDescent="0.15">
-      <c r="B26" s="8" t="s">
+      <c r="C26" s="3"/>
+    </row>
+    <row r="27" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="B27" s="3"/>
+    </row>
+    <row r="30" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="B30" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="C26" s="4"/>
-    </row>
-    <row r="27" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="B27" s="4"/>
-    </row>
-    <row r="30" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="B30" s="9" t="s">
+      <c r="C30" s="3"/>
+    </row>
+    <row r="33" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="B33" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="C30" s="4"/>
-    </row>
-    <row r="33" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="B33" s="16" t="s">
-        <v>11</v>
-      </c>
-      <c r="C33" s="16"/>
-      <c r="D33" s="16"/>
-      <c r="E33" s="4"/>
+      <c r="C33" s="15"/>
+      <c r="D33" s="15"/>
+      <c r="E33" s="3"/>
     </row>
     <row r="37" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="B37" s="17"/>
-      <c r="C37" s="18" t="s">
-        <v>22</v>
-      </c>
-      <c r="D37" s="18"/>
-      <c r="E37" s="17"/>
+      <c r="B37" s="16"/>
+      <c r="C37" s="17" t="s">
+        <v>19</v>
+      </c>
+      <c r="D37" s="17"/>
+      <c r="E37" s="16"/>
     </row>
     <row r="38" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="B38" s="17"/>
-      <c r="C38" s="18"/>
-      <c r="D38" s="18"/>
-      <c r="E38" s="17"/>
+      <c r="B38" s="16"/>
+      <c r="C38" s="17"/>
+      <c r="D38" s="17"/>
+      <c r="E38" s="16"/>
     </row>
     <row r="39" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="B39" s="17"/>
-      <c r="C39" s="18"/>
-      <c r="D39" s="18"/>
-      <c r="E39" s="17"/>
+      <c r="B39" s="16"/>
+      <c r="C39" s="17"/>
+      <c r="D39" s="17"/>
+      <c r="E39" s="16"/>
     </row>
     <row r="40" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="C40" s="17"/>
-      <c r="D40" s="17"/>
+      <c r="C40" s="16"/>
+      <c r="D40" s="16"/>
     </row>
   </sheetData>
   <mergeCells count="5">
@@ -780,94 +813,92 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G30"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F16" sqref="F16"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="6.625" style="2" customWidth="1"/>
-    <col min="2" max="2" width="14.375" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.625" style="2" customWidth="1"/>
-    <col min="4" max="16384" width="9" style="2"/>
+    <col min="1" max="1" width="6.625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="14.375" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.625" style="1" customWidth="1"/>
+    <col min="4" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="18" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="B4" s="4" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="B4" s="5" t="s">
+      <c r="C4" s="3"/>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="C6" s="3"/>
+      <c r="D6" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C4" s="4"/>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="C6" s="4"/>
-      <c r="D6" s="5" t="s">
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="B8" s="4" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="B8" s="5" t="s">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="B9" s="3"/>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="B12" s="4" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="B9" s="4"/>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="B12" s="5" t="s">
+      <c r="C12" s="2"/>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="B16" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="C12" s="3"/>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="B16" s="7" t="s">
+      <c r="D16" s="6" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="17" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="B17" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="D16" s="7" t="s">
+      <c r="D17" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="G17" s="5"/>
+    </row>
+    <row r="18" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="B18" s="5"/>
+    </row>
+    <row r="21" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="D21" s="6" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="17" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="B17" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="D17" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="G17" s="6"/>
-    </row>
-    <row r="18" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="B18" s="6"/>
-    </row>
-    <row r="21" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="D21" s="7" t="s">
+    <row r="22" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="B22" s="5"/>
+      <c r="D22" s="4" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="26" spans="2:7" ht="24" x14ac:dyDescent="0.15">
+      <c r="B26" s="7" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="22" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="B22" s="6"/>
-      <c r="D22" s="5" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="26" spans="2:7" ht="24" x14ac:dyDescent="0.15">
-      <c r="B26" s="8" t="s">
+      <c r="C26" s="3"/>
+    </row>
+    <row r="27" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="B27" s="3"/>
+    </row>
+    <row r="30" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="B30" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="C26" s="4"/>
-    </row>
-    <row r="27" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="B27" s="4"/>
-    </row>
-    <row r="30" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="B30" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="C30" s="4"/>
+      <c r="C30" s="3"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
@@ -877,11 +908,65 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:K10"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G5" sqref="G5:L5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetData>
+    <row r="1" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A1" s="18" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="B2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A5" s="10"/>
+      <c r="B5" s="10"/>
+      <c r="C5" s="10"/>
+      <c r="D5" s="10"/>
+      <c r="E5" s="10"/>
+      <c r="F5" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="G5" s="10"/>
+      <c r="H5" s="10"/>
+      <c r="I5" s="10"/>
+      <c r="J5" s="10"/>
+      <c r="K5" s="10"/>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="F6" s="10"/>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="F7" s="10"/>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="F8" s="10"/>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="F9" s="10"/>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="F10" s="10"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E14"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
@@ -891,80 +976,40 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="18" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="B5" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="C5" s="10"/>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="B7" s="9" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="B5" s="10" t="s">
+      <c r="C7" s="10"/>
+    </row>
+    <row r="9" spans="1:5" ht="27" x14ac:dyDescent="0.15">
+      <c r="E9" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="C5" s="11"/>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="B7" s="10" t="s">
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="E10" s="12"/>
+    </row>
+    <row r="13" spans="1:5" ht="27" x14ac:dyDescent="0.15">
+      <c r="B13" s="13" t="s">
         <v>14</v>
       </c>
-      <c r="C7" s="11"/>
-    </row>
-    <row r="9" spans="1:5" ht="27" x14ac:dyDescent="0.15">
-      <c r="E9" s="12" t="s">
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="B14" s="9" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="E10" s="13"/>
-    </row>
-    <row r="13" spans="1:5" ht="27" x14ac:dyDescent="0.15">
-      <c r="B13" s="14" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="B14" s="10" t="s">
-        <v>17</v>
-      </c>
-      <c r="C14" s="11"/>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D5"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I14" sqref="I14"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
-  <cols>
-    <col min="2" max="3" width="10.5" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A1" s="1" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="B4" s="10" t="s">
-        <v>19</v>
-      </c>
-      <c r="C4" s="10" t="s">
-        <v>20</v>
-      </c>
-      <c r="D4" s="10" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="B5" s="15"/>
-      <c r="C5" s="15"/>
-      <c r="D5" s="11"/>
+      <c r="C14" s="10"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
@@ -974,25 +1019,37 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A1:D5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
-  <sheetData/>
-  <phoneticPr fontId="1"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
-  <sheetData/>
+  <cols>
+    <col min="2" max="3" width="10.5" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A1" s="18" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="B4" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="C4" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="D4" s="9" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="B5" s="14"/>
+      <c r="C5" s="14"/>
+      <c r="D5" s="10"/>
+    </row>
+  </sheetData>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/src/test/data/anno_LabelledCell_template.xlsx
+++ b/src/test/data/anno_LabelledCell_template.xlsx
@@ -1,10 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="18625"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="21629"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9C510470-31D4-4448-BC92-6A9A4A38CE0D}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="2"/>
+    <workbookView xWindow="34140" yWindow="1800" windowWidth="21615" windowHeight="11655" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="通常" sheetId="1" r:id="rId1"/>
@@ -12,13 +13,14 @@
     <sheet name="見出しから離れたセル" sheetId="7" r:id="rId3"/>
     <sheet name="正規表現で一致" sheetId="5" r:id="rId4"/>
     <sheet name="数式を指定" sheetId="6" r:id="rId5"/>
+    <sheet name="コメント情報" sheetId="8" r:id="rId6"/>
   </sheets>
   <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="24">
   <si>
     <t>位置（右側）</t>
     <rPh sb="0" eb="2">
@@ -194,11 +196,25 @@
     <t>アノテーション「@XlsLabelledCell」のテスト</t>
     <phoneticPr fontId="1"/>
   </si>
+  <si>
+    <t>コメント情報のマッピング</t>
+    <rPh sb="4" eb="6">
+      <t>ジョウホウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>名前</t>
+    <rPh sb="0" eb="2">
+      <t>ナマエ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -303,7 +319,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="49" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
@@ -328,13 +344,14 @@
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
@@ -672,7 +689,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G40"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -688,7 +705,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A1" s="18" t="s">
+      <c r="A1" s="16" t="s">
         <v>21</v>
       </c>
     </row>
@@ -765,36 +782,36 @@
       <c r="C30" s="3"/>
     </row>
     <row r="33" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="B33" s="15" t="s">
+      <c r="B33" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="C33" s="15"/>
-      <c r="D33" s="15"/>
+      <c r="C33" s="17"/>
+      <c r="D33" s="17"/>
       <c r="E33" s="3"/>
     </row>
     <row r="37" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="B37" s="16"/>
-      <c r="C37" s="17" t="s">
+      <c r="B37" s="18"/>
+      <c r="C37" s="19" t="s">
         <v>19</v>
       </c>
-      <c r="D37" s="17"/>
-      <c r="E37" s="16"/>
+      <c r="D37" s="19"/>
+      <c r="E37" s="18"/>
     </row>
     <row r="38" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="B38" s="16"/>
-      <c r="C38" s="17"/>
-      <c r="D38" s="17"/>
-      <c r="E38" s="16"/>
+      <c r="B38" s="18"/>
+      <c r="C38" s="19"/>
+      <c r="D38" s="19"/>
+      <c r="E38" s="18"/>
     </row>
     <row r="39" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="B39" s="16"/>
-      <c r="C39" s="17"/>
-      <c r="D39" s="17"/>
-      <c r="E39" s="16"/>
+      <c r="B39" s="18"/>
+      <c r="C39" s="19"/>
+      <c r="D39" s="19"/>
+      <c r="E39" s="18"/>
     </row>
     <row r="40" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="C40" s="16"/>
-      <c r="D40" s="16"/>
+      <c r="C40" s="18"/>
+      <c r="D40" s="18"/>
     </row>
   </sheetData>
   <mergeCells count="5">
@@ -810,7 +827,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:G30"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -824,7 +841,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A1" s="18" t="s">
+      <c r="A1" s="16" t="s">
         <v>21</v>
       </c>
     </row>
@@ -907,17 +924,17 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:K10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G5" sqref="G5:L5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A1" s="18" t="s">
+      <c r="A1" s="16" t="s">
         <v>21</v>
       </c>
     </row>
@@ -963,7 +980,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:E14"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -976,7 +993,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A1" s="18" t="s">
+      <c r="A1" s="16" t="s">
         <v>21</v>
       </c>
     </row>
@@ -1018,7 +1035,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:D5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -1029,7 +1046,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A1" s="18" t="s">
+      <c r="A1" s="16" t="s">
         <v>21</v>
       </c>
     </row>
@@ -1048,6 +1065,41 @@
       <c r="B5" s="14"/>
       <c r="C5" s="14"/>
       <c r="D5" s="10"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{931C97FF-E4C1-4891-8C41-4F573340B603}">
+  <dimension ref="A1:C5"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E16" sqref="E16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="2" max="3" width="10.5" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A1" s="16" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="B2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="B5" s="15" t="s">
+        <v>23</v>
+      </c>
+      <c r="C5" s="3"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
